--- a/data/trans_camb/P54_A_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,5</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; -4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; -6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,72; -8,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,68; -6,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,57; -7,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,76; -7,98</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,5%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -35,03</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -67,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -75,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -83,15</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,73</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,89; -4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,46; -4,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; -3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; -2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,27; -5,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,93; -4,79</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,73%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -63,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -40,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,14; -18,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,38; -67,43</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 4,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,08; -2,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,92; -6,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,54; -6,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; -2,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; -5,13</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,21%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 318,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -45,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -77,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,89; -76,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -1,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,34; -78,8</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,55; -4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,53; -4,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; -9,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,24; -7,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,21; -7,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; -7,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,06%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -53,88</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -66,09</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,84; -76,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,96; -78,68</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; -6,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,66; -6,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; -5,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,17; -6,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,51; -7,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,39; -7,88</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,45%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -61,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -74,1</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -65,77</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,59; -83,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,76</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,43</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 0,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; -0,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,0; -3,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,63; -4,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,54; -2,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; -3,29</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,36%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,27%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,56%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,18%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,89; -29,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -57,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,86; -37,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -55,88</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,21</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; -5,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; -6,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; -8,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; -8,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; -7,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; -7,92</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,13%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,17%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,7%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,91; -63,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,02; -88,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,33; -87,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,1; -84,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,52; -81,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,48; -88,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
